--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_23.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>117397.2506240577</v>
+        <v>55762.61129897175</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7282096.494983043</v>
+        <v>7282096.494983044</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>66.93751410372052</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>313.854113028218</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>43.31785343913981</v>
       </c>
       <c r="X4" t="n">
-        <v>162.3912409166443</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>357.7945095910654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>257.0152846411282</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>133.4548648132225</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>83.82466560786631</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1136,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>96.36163317610307</v>
+        <v>71.32723313979579</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>25.31590541686237</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>167.2286752376182</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>337.7383841227065</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>29.73247399882746</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>63.57678144609342</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,13 +1582,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1607,22 +1607,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>231.717305687756</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,19 +1658,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1704,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1768,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>81.25819606329402</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>128.78350070179</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>55.84003136202623</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2056,19 +2056,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>53.06513659042616</v>
+        <v>122.5915982230236</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2178,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>155.2114886365804</v>
+        <v>90.04875807993751</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2327,16 +2327,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>334.58170967322</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>203.1206149109022</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2415,7 +2415,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2764,16 +2764,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U28" t="n">
-        <v>128.7835007017899</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>29.41204342723536</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3007,16 +3007,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>155.2114886365809</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>323.9918595228954</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3235,22 +3235,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>155.4526127311939</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>269.5134569480831</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>284.5615160058697</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3363,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3475,19 +3475,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>128.7835007017901</v>
+        <v>216.6993815150876</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>269.5134569480836</v>
+        <v>186.5193513122121</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,28 +3548,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,13 +3712,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>113.0310749869919</v>
       </c>
       <c r="U40" t="n">
-        <v>153.0555388225926</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.596843649344</v>
       </c>
       <c r="T43" t="n">
-        <v>162.5776147681361</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3980,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>269.5134569480836</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>339.0399185806816</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4074,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>114.3028656524355</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,13 +4186,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
         <v>1363.553390680693</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4361,19 +4361,19 @@
         <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2106.461377926619</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W2" t="n">
-        <v>1753.692722656504</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X2" t="n">
-        <v>1753.692722656504</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="Y2" t="n">
-        <v>1363.553390680693</v>
+        <v>1816.955293888756</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4422,7 +4422,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>484.4236418782191</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X4" t="n">
-        <v>320.3920853967602</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.5995062532301</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1584.314837422907</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="Y5" t="n">
-        <v>1970.914677487028</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="6">
@@ -4647,16 +4647,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.7458755710942</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>188.7458755710942</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>188.7458755710942</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>188.7458755710942</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>188.7458755710942</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>188.7458755710942</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>188.7458755710942</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146243</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>409.5384547146243</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W7" t="n">
-        <v>409.5384547146243</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X7" t="n">
-        <v>409.5384547146243</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y7" t="n">
-        <v>188.7458755710942</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1689.203741822952</v>
+        <v>2036.885894456656</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.241224882541</v>
+        <v>1667.923377516244</v>
       </c>
       <c r="D8" t="n">
-        <v>961.9755262757901</v>
+        <v>1667.923377516244</v>
       </c>
       <c r="E8" t="n">
-        <v>576.1872736775458</v>
+        <v>1282.135124918</v>
       </c>
       <c r="F8" t="n">
-        <v>165.2013688879383</v>
+        <v>871.1492201283927</v>
       </c>
       <c r="G8" t="n">
-        <v>151.2779648265292</v>
+        <v>453.1854120265796</v>
       </c>
       <c r="H8" t="n">
-        <v>151.2779648265292</v>
+        <v>125.9906920625824</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X8" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="Y8" t="n">
-        <v>2075.803581887074</v>
+        <v>2423.485734520778</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4878,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2718927217162</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>411.0644718652463</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>411.0644718652463</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>411.0644718652463</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>411.0644718652463</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>411.0644718652463</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>411.0644718652463</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1139.146815977588</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="C11" t="n">
-        <v>1139.146815977588</v>
+        <v>880.7499412272339</v>
       </c>
       <c r="D11" t="n">
-        <v>780.8811173708375</v>
+        <v>880.7499412272339</v>
       </c>
       <c r="E11" t="n">
-        <v>395.0928647725933</v>
+        <v>494.9616886289896</v>
       </c>
       <c r="F11" t="n">
-        <v>395.0928647725933</v>
+        <v>83.97578383938207</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>83.97578383938207</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5063,28 +5063,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>2642.120401548716</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W11" t="n">
-        <v>2289.351746278601</v>
+        <v>2013.317548404537</v>
       </c>
       <c r="X11" t="n">
-        <v>1915.885988017521</v>
+        <v>1639.851790143457</v>
       </c>
       <c r="Y11" t="n">
-        <v>1525.74665604171</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="12">
@@ -5115,13 +5115,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L12" t="n">
         <v>713.8062203571349</v>
@@ -5130,13 +5130,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018223</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E13" t="n">
-        <v>663.9100130487641</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F13" t="n">
-        <v>517.0200655508537</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G13" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H13" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5230,19 +5230,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1546.944160717209</v>
+        <v>1116.950579244872</v>
       </c>
       <c r="C14" t="n">
-        <v>1177.981643776797</v>
+        <v>1116.950579244872</v>
       </c>
       <c r="D14" t="n">
-        <v>1177.981643776797</v>
+        <v>1116.950579244872</v>
       </c>
       <c r="E14" t="n">
-        <v>792.1933911785532</v>
+        <v>1116.950579244872</v>
       </c>
       <c r="F14" t="n">
-        <v>381.2074863889456</v>
+        <v>705.9646744552645</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>288.0008663534513</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533141</v>
@@ -5306,22 +5306,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018222</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="X14" t="n">
-        <v>2323.683332757143</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="Y14" t="n">
-        <v>1933.544000781331</v>
+        <v>1503.550419308994</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598714</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D16" t="n">
-        <v>578.0123447940985</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E16" t="n">
-        <v>430.0992512117053</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F16" t="n">
-        <v>430.0992512117053</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G16" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H16" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5443,43 +5443,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="17">
@@ -5516,10 +5516,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5568,73 +5568,73 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036378</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204936</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2248.366960976675</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C19" t="n">
-        <v>2248.366960976675</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D19" t="n">
-        <v>2248.366960976675</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E19" t="n">
-        <v>2248.366960976675</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F19" t="n">
-        <v>2248.366960976675</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G19" t="n">
-        <v>2079.367160715007</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H19" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I19" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J19" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K19" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>2697.149091018222</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V19" t="n">
-        <v>2697.149091018222</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X19" t="n">
-        <v>2469.159540120205</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y19" t="n">
-        <v>2248.366960976675</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1273.280804219766</v>
+        <v>1701.775251950352</v>
       </c>
       <c r="C20" t="n">
-        <v>904.3182872793539</v>
+        <v>1332.81273500994</v>
       </c>
       <c r="D20" t="n">
-        <v>904.3182872793539</v>
+        <v>974.5470364031896</v>
       </c>
       <c r="E20" t="n">
-        <v>518.5300346811096</v>
+        <v>588.7587838049453</v>
       </c>
       <c r="F20" t="n">
-        <v>107.544129891502</v>
+        <v>177.7728790153378</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
         <v>881.2824271224079</v>
@@ -5768,34 +5768,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2423.485734520779</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U20" t="n">
-        <v>2423.485734520779</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V20" t="n">
-        <v>2423.485734520779</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W20" t="n">
-        <v>2423.485734520779</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X20" t="n">
-        <v>2050.019976259699</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="Y20" t="n">
-        <v>1659.880644283887</v>
+        <v>2088.375092014473</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>266.2060027641994</v>
+        <v>368.8844281164668</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598713</v>
+        <v>773.5003462121387</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1297.64725977017</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.373795869721</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018223</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018223</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T22" t="n">
-        <v>2540.369809567132</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="U22" t="n">
-        <v>2540.369809567132</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="V22" t="n">
-        <v>2540.369809567132</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W22" t="n">
-        <v>2250.952639530171</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X22" t="n">
-        <v>2022.963088632153</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1546.944160717209</v>
+        <v>1525.597764264522</v>
       </c>
       <c r="C23" t="n">
-        <v>1546.944160717209</v>
+        <v>1156.63524732411</v>
       </c>
       <c r="D23" t="n">
-        <v>1188.678462110459</v>
+        <v>798.3695487173597</v>
       </c>
       <c r="E23" t="n">
-        <v>802.8902095122144</v>
+        <v>412.5812961191155</v>
       </c>
       <c r="F23" t="n">
-        <v>391.9043047226068</v>
+        <v>412.5812961191155</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>412.5812961191155</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
@@ -5993,7 +5993,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6014,25 +6014,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="X23" t="n">
-        <v>2323.683332757143</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="Y23" t="n">
-        <v>1933.544000781331</v>
+        <v>1912.197604328644</v>
       </c>
     </row>
     <row r="24">
@@ -6084,7 +6084,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2627.754532504894</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6172,19 +6172,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U25" t="n">
-        <v>598.0446400632119</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V25" t="n">
-        <v>343.360151857325</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X25" t="n">
         <v>53.94298182036445</v>
@@ -6224,7 +6224,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
         <v>463.9616490733126</v>
@@ -6303,7 +6303,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
         <v>266.2060027641994</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>2697.149091018222</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U28" t="n">
-        <v>2567.064746875</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V28" t="n">
-        <v>2312.380258669114</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6461,10 +6461,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
         <v>881.2824271224074</v>
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
@@ -6540,13 +6540,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M30" t="n">
         <v>1194.968834417902</v>
@@ -6561,22 +6561,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>252.6519168570173</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>252.6519168570173</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>252.6519168570173</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>252.6519168570173</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>252.6519168570173</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>83.65211659534967</v>
       </c>
       <c r="H31" t="n">
         <v>53.94298182036445</v>
@@ -6655,16 +6655,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>571.3497027553424</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W31" t="n">
-        <v>281.9325327183818</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>252.6519168570173</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1546.944160717209</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C32" t="n">
-        <v>1177.981643776797</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D32" t="n">
-        <v>1177.981643776797</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E32" t="n">
-        <v>792.1933911785532</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F32" t="n">
-        <v>381.2074863889456</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G32" t="n">
         <v>53.94298182036445</v>
@@ -6698,7 +6698,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733126</v>
@@ -6722,28 +6722,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X32" t="n">
-        <v>2323.683332757143</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y32" t="n">
-        <v>1933.544000781331</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="33">
@@ -6777,22 +6777,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
         <v>2525.076107152626</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>2540.126249875602</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>2540.126249875602</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>2250.95263953017</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V34" t="n">
-        <v>2250.95263953017</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W34" t="n">
-        <v>2250.95263953017</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1491.915471247702</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C35" t="n">
-        <v>1122.95295430729</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D35" t="n">
-        <v>1122.95295430729</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E35" t="n">
-        <v>737.1647017090459</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F35" t="n">
-        <v>326.1787969194383</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6959,28 +6959,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V35" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W35" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X35" t="n">
-        <v>2268.654643287635</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y35" t="n">
-        <v>1878.515311311824</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="36">
@@ -7011,13 +7011,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
         <v>670.8219208598713</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7123,22 +7123,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U37" t="n">
-        <v>598.0446400632119</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V37" t="n">
-        <v>343.360151857325</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036444</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1491.915471247702</v>
+        <v>1408.083041312479</v>
       </c>
       <c r="C38" t="n">
-        <v>1122.952954307291</v>
+        <v>1039.120524372067</v>
       </c>
       <c r="D38" t="n">
-        <v>1122.952954307291</v>
+        <v>1039.120524372067</v>
       </c>
       <c r="E38" t="n">
-        <v>737.1647017090463</v>
+        <v>653.3322717738226</v>
       </c>
       <c r="F38" t="n">
-        <v>326.1787969194388</v>
+        <v>242.3463669842151</v>
       </c>
       <c r="G38" t="n">
         <v>53.94298182036445</v>
@@ -7172,10 +7172,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L38" t="n">
         <v>881.2824271224076</v>
@@ -7196,28 +7196,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U38" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V38" t="n">
-        <v>2642.120401548716</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W38" t="n">
-        <v>2642.120401548716</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X38" t="n">
-        <v>2268.654643287636</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="Y38" t="n">
-        <v>1878.515311311824</v>
+        <v>1794.6828813766</v>
       </c>
     </row>
     <row r="39">
@@ -7251,10 +7251,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L39" t="n">
         <v>670.8219208598713</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2360.899071821727</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="C40" t="n">
-        <v>2191.96288889382</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="D40" t="n">
-        <v>2191.96288889382</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E40" t="n">
-        <v>2191.96288889382</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F40" t="n">
-        <v>2191.96288889382</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G40" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>2697.149091018222</v>
+        <v>613.9561811892706</v>
       </c>
       <c r="U40" t="n">
-        <v>2542.547536651967</v>
+        <v>613.9561811892706</v>
       </c>
       <c r="V40" t="n">
-        <v>2542.547536651967</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="W40" t="n">
-        <v>2542.547536651967</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="X40" t="n">
-        <v>2542.547536651967</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="Y40" t="n">
-        <v>2542.547536651967</v>
+        <v>359.2716929833838</v>
       </c>
     </row>
     <row r="41">
@@ -7409,13 +7409,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7491,22 +7491,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>266.2060027641994</v>
+        <v>368.8844281164668</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598713</v>
+        <v>773.5003462121387</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1297.64725977017</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.373795869721</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7594,22 +7594,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S43" t="n">
-        <v>2697.149091018222</v>
+        <v>2505.637127736057</v>
       </c>
       <c r="T43" t="n">
-        <v>2532.929278121115</v>
+        <v>2505.637127736057</v>
       </c>
       <c r="U43" t="n">
-        <v>2243.755667775683</v>
+        <v>2505.637127736057</v>
       </c>
       <c r="V43" t="n">
-        <v>2243.755667775683</v>
+        <v>2250.95263953017</v>
       </c>
       <c r="W43" t="n">
-        <v>2243.755667775683</v>
+        <v>2250.95263953017</v>
       </c>
       <c r="X43" t="n">
-        <v>2243.755667775683</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y43" t="n">
         <v>2022.963088632153</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1491.915471247702</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C44" t="n">
-        <v>1122.952954307291</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D44" t="n">
-        <v>1122.952954307291</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E44" t="n">
-        <v>737.1647017090463</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F44" t="n">
-        <v>326.1787969194388</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G44" t="n">
         <v>53.94298182036445</v>
@@ -7670,28 +7670,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X44" t="n">
-        <v>2268.654643287636</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y44" t="n">
-        <v>1878.515311311824</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
         <v>221.4284102424006</v>
@@ -7737,31 +7737,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P45" t="n">
-        <v>2627.754532504894</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>338.4002221349972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>338.4002221349972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>338.4002221349972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>338.4002221349972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>169.4004218733296</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
         <v>53.94298182036445</v>
@@ -7834,22 +7834,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W46" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X46" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9255,7 +9255,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K30" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10434,7 +10434,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>76.04578589808847</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>294.1902987655297</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23315,7 +23315,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>82.85718120047575</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
         <v>45.19995918853701</v>
@@ -23470,13 +23470,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>92.20546707660114</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23540,25 +23540,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,25 +23656,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>86.05160619575689</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,7 +23695,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
@@ -23707,13 +23707,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23902,16 +23902,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>100.3308574797689</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,7 +23932,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
@@ -23944,19 +23944,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>360.7190334303688</v>
+        <v>291.1925717977714</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24032,7 +24032,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24145,10 +24145,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,16 +24169,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>69.82361682150392</v>
+        <v>134.9863473781468</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24187,13 +24187,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24206,7 +24206,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24215,16 +24215,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>79.20246034757503</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>120.8021578534549</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,13 +24251,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
@@ -24269,7 +24269,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24382,10 +24382,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,28 +24406,28 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>22.54869530067504</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24619,10 +24619,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,7 +24643,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
@@ -24652,16 +24652,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U28" t="n">
-        <v>157.4983735401879</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24850,16 +24850,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>126.7588454145598</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,7 +24880,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
@@ -24895,16 +24895,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>96.92615468724711</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24929,7 +24929,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>89.79231049789962</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -25093,10 +25093,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,28 +25117,28 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>56.69292621882499</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25157,7 +25157,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>144.2707130727119</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25217,7 +25217,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>85.16958467259929</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25330,10 +25330,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25363,19 +25363,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>157.4983735401876</v>
+        <v>69.58249272689014</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25403,7 +25403,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>144.2707130727114</v>
+        <v>227.2648187085829</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25436,28 +25436,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25546,10 +25546,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25567,10 +25567,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,7 +25591,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25600,13 +25600,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>112.0040304710923</v>
       </c>
       <c r="U40" t="n">
-        <v>133.2263354193851</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25804,10 +25804,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,31 +25828,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>22.54869530067492</v>
       </c>
       <c r="T43" t="n">
-        <v>62.45749068994814</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>144.2707130727114</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25928,7 +25928,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26035,16 +26035,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>41.86802318935965</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,7 +26065,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26074,13 +26074,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26089,7 +26089,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>679508.6335370305</v>
+        <v>679508.6335370304</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>679508.6335370305</v>
+        <v>679508.6335370304</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>679508.6335370305</v>
+        <v>679508.6335370307</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>679508.6335370304</v>
+        <v>679508.6335370305</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>679508.6335370305</v>
+        <v>679508.6335370304</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>679508.6335370304</v>
+        <v>679508.6335370307</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>679508.6335370304</v>
+        <v>679508.6335370305</v>
       </c>
     </row>
     <row r="15">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.017671963</v>
+      </c>
+      <c r="C2" t="n">
         <v>472099.0176719629</v>
-      </c>
-      <c r="C2" t="n">
-        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
-        <v>332525.5015181212</v>
+        <v>332525.5015181213</v>
       </c>
       <c r="F2" t="n">
-        <v>332525.5015181212</v>
+        <v>332525.5015181213</v>
       </c>
       <c r="G2" t="n">
         <v>332525.5015181212</v>
@@ -26332,7 +26332,7 @@
         <v>332525.5015181213</v>
       </c>
       <c r="I2" t="n">
-        <v>332525.5015181213</v>
+        <v>332525.5015181212</v>
       </c>
       <c r="J2" t="n">
         <v>332525.5015181213</v>
@@ -26350,10 +26350,10 @@
         <v>332525.5015181212</v>
       </c>
       <c r="O2" t="n">
-        <v>332525.5015181212</v>
+        <v>332525.5015181213</v>
       </c>
       <c r="P2" t="n">
-        <v>332525.5015181212</v>
+        <v>332525.5015181213</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="F4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597034</v>
       </c>
       <c r="G4" t="n">
         <v>513.1084990597035</v>
@@ -26485,7 +26485,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-339787.0787866102</v>
+        <v>-339787.07878661</v>
       </c>
       <c r="C6" t="n">
-        <v>250180.8004279345</v>
+        <v>250180.8004279344</v>
       </c>
       <c r="D6" t="n">
         <v>250180.8004279344</v>
       </c>
       <c r="E6" t="n">
-        <v>282780.914955652</v>
+        <v>282780.9149556522</v>
       </c>
       <c r="F6" t="n">
-        <v>282780.9149556521</v>
+        <v>282780.9149556522</v>
       </c>
       <c r="G6" t="n">
         <v>282780.914955652</v>
       </c>
       <c r="H6" t="n">
+        <v>282780.9149556522</v>
+      </c>
+      <c r="I6" t="n">
         <v>282780.9149556521</v>
       </c>
-      <c r="I6" t="n">
-        <v>282780.9149556522</v>
-      </c>
       <c r="J6" t="n">
-        <v>106357.6957630591</v>
+        <v>106357.6957630592</v>
       </c>
       <c r="K6" t="n">
         <v>282780.914955652</v>
@@ -26552,7 +26552,7 @@
         <v>282780.9149556521</v>
       </c>
       <c r="M6" t="n">
-        <v>282780.9149556521</v>
+        <v>282780.914955652</v>
       </c>
       <c r="N6" t="n">
         <v>282780.914955652</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26747,7 +26747,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26793,19 +26793,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545555</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
@@ -26820,7 +26820,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27382,10 +27382,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>287.7455275169625</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>13.89814544191694</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>243.2051448974512</v>
       </c>
       <c r="X4" t="n">
-        <v>63.31841447239285</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>7.478382179942173</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27673,13 +27673,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>70.73697382900673</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>1.510756979115769</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>202.6983327287247</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>55.56968306875818</v>
+        <v>80.60408310506546</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>19.88405377167464</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>44.91686371240073</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31142,25 +31142,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392695</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,19 +31355,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653305</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31616,7 +31616,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>149.8971812516343</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31838,7 +31838,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31850,7 +31850,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>167.9005868329995</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
         <v>193.3156655923047</v>
@@ -31859,7 +31859,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R12" t="n">
         <v>50.44659727034981</v>
@@ -31996,7 +31996,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K14" t="n">
         <v>193.1674799081577</v>
@@ -32008,7 +32008,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O14" t="n">
         <v>255.8615389119865</v>
@@ -32020,13 +32020,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942384</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N15" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P15" t="n">
         <v>155.1528646479577</v>
@@ -32099,16 +32099,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M16" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N16" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T16" t="n">
         <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,13 +32224,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32248,22 +32248,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,19 +32303,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K18" t="n">
-        <v>11.76595806653282</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
         <v>176.4169820478007</v>
@@ -32336,16 +32336,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32382,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,13 +32406,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32421,7 +32421,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32461,13 +32461,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32485,22 +32485,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,19 +32540,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K21" t="n">
-        <v>131.2017781649102</v>
+        <v>115.4815392304395</v>
       </c>
       <c r="L21" t="n">
         <v>176.4169820478007</v>
@@ -32570,19 +32570,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,19 +32619,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32643,13 +32643,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32658,7 +32658,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32698,13 +32698,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32722,22 +32722,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32777,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32804,22 +32804,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>139.432625713487</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,19 +32856,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32880,13 +32880,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32895,7 +32895,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32935,13 +32935,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32950,7 +32950,7 @@
         <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
         <v>266.6471645405367</v>
@@ -32959,22 +32959,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,19 +33014,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K27" t="n">
-        <v>11.76595806653305</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L27" t="n">
         <v>176.4169820478007</v>
@@ -33047,16 +33047,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,19 +33093,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33117,13 +33117,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33132,7 +33132,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33172,13 +33172,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33196,22 +33196,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,19 +33251,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K30" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423996</v>
       </c>
       <c r="L30" t="n">
         <v>176.4169820478007</v>
@@ -33284,16 +33284,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33330,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33354,13 +33354,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33369,7 +33369,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33409,13 +33409,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33433,22 +33433,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33515,22 +33515,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>111.7343803072874</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33567,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33591,13 +33591,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33606,7 +33606,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33646,13 +33646,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33670,22 +33670,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,22 +33725,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
-        <v>87.78329382423999</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L36" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942361</v>
       </c>
       <c r="M36" t="n">
         <v>205.8702969983122</v>
@@ -33758,16 +33758,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33804,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33828,13 +33828,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33843,7 +33843,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33883,13 +33883,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33907,22 +33907,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,22 +33962,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L39" t="n">
-        <v>56.98116194942361</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M39" t="n">
         <v>205.8702969983122</v>
@@ -33995,16 +33995,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34041,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34065,13 +34065,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34080,7 +34080,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34120,13 +34120,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34144,22 +34144,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,19 +34199,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
-        <v>131.2017781649102</v>
+        <v>115.4815392304395</v>
       </c>
       <c r="L42" t="n">
         <v>176.4169820478007</v>
@@ -34229,19 +34229,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34278,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,13 +34302,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34317,7 +34317,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
         <v>193.1674799081577</v>
@@ -34381,22 +34381,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34457,28 +34457,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N45" t="n">
-        <v>211.31907117367</v>
+        <v>195.5988322391985</v>
       </c>
       <c r="O45" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>139.432625713487</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34515,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,13 +34539,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34554,7 +34554,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35498,7 +35498,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245897</v>
@@ -35507,7 +35507,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730088</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N15" t="n">
         <v>559.3197334338902</v>
@@ -35744,7 +35744,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,13 +35805,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N16" t="n">
         <v>148.370846145888</v>
@@ -35820,7 +35820,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35896,10 +35896,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K18" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35975,7 +35975,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36057,7 +36057,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36133,10 +36133,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K21" t="n">
-        <v>138.3897561047526</v>
+        <v>242.1053372686591</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36212,13 +36212,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36294,7 +36294,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36370,10 +36370,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36449,13 +36449,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P24" t="n">
-        <v>323.920986939094</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36531,7 +36531,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
         <v>485.8144648060965</v>
@@ -36607,10 +36607,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>138.3897561047526</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36686,7 +36686,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36768,7 +36768,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36844,10 +36844,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>138.3897561047522</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36923,7 +36923,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37005,7 +37005,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37081,10 +37081,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37154,16 +37154,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37242,7 +37242,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37318,10 +37318,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M36" t="n">
         <v>529.4413268262938</v>
@@ -37397,7 +37397,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37479,7 +37479,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37555,10 +37555,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L39" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
@@ -37634,7 +37634,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37716,7 +37716,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37792,10 +37792,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
-        <v>138.3897561047526</v>
+        <v>242.1053372686591</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37871,13 +37871,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37953,7 +37953,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38029,10 +38029,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38105,13 +38105,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>543.5994944994187</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
-        <v>323.920986939094</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38190,7 +38190,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1663383.304241981</v>
+        <v>1654739.525348075</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1226254.606563593</v>
+        <v>523586.9162897412</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1702443.552109826</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10539372.29004432</v>
+        <v>10757764.99812417</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>11.95189872950579</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>212.4544848593657</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250886</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>9.461970681989554</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>168.8457406638654</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>407.3003379941815</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>28.31592077337096</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>176.0974746432076</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>33.87173682670818</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>65.51651982872637</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>115.2741345058928</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>264.8835242011452</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>208.4827883384993</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>99.90681807664348</v>
+        <v>94.98542483262922</v>
       </c>
       <c r="I12" t="n">
-        <v>45.44580843958678</v>
+        <v>27.90133207014448</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.90078060183531</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>56.09365403797906</v>
       </c>
       <c r="H13" t="n">
-        <v>152.7120966692326</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>45.43500545437684</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>129.1731816677914</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634776</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9169039459368</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>179.7188787253433</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664348</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958678</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183529</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>45.43500545437707</v>
+        <v>15.74955790720833</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677914</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>11.82150965373811</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>164.8819720579273</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>101.2386603312939</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.64843562452423</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>82.18888322529661</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>33.35146980185857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>64.34190763938523</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>126.4476979561452</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>46.15909059003918</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>161.8175117958951</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>85.59161276455727</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>140.5678108961688</v>
+        <v>161.1706059301398</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>1001.280783616703</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2453.870288883588</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2453.870288883588</v>
+        <v>2482.548601261287</v>
       </c>
       <c r="V2" t="n">
-        <v>2122.807401540017</v>
+        <v>2151.485713917717</v>
       </c>
       <c r="W2" t="n">
-        <v>2122.807401540017</v>
+        <v>2151.485713917717</v>
       </c>
       <c r="X2" t="n">
-        <v>1749.341643278937</v>
+        <v>1778.019955656637</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.341643278937</v>
+        <v>1387.880623680825</v>
       </c>
     </row>
     <row r="3">
@@ -4385,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170839</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359569</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747056</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692501</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961351</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424012</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673431</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036447</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537798</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152627</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073964</v>
@@ -4442,19 +4442,19 @@
         <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167583</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
         <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207639</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002106</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036447</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036447</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036447</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036447</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>718.5714380630108</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036447</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036447</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036447</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036447</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036447</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1745.334734821698</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="C5" t="n">
-        <v>1376.372217881286</v>
+        <v>1589.326341994619</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>1589.326341994619</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>1203.538089396375</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>792.5521846067672</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4603,16 +4603,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>1915.885988017521</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="Y5" t="n">
-        <v>1915.885988017521</v>
+        <v>1958.288858935031</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4649,28 +4649,28 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>444.0275768541695</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>275.0913939262626</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>275.0913939262626</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>275.0913939262626</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>128.2014464283523</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>128.2014464283523</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>444.0275768541695</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>444.0275768541695</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>444.0275768541695</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>444.0275768541695</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1958.288858935031</v>
+        <v>1584.314837422907</v>
       </c>
       <c r="C8" t="n">
-        <v>1958.288858935031</v>
+        <v>1584.314837422907</v>
       </c>
       <c r="D8" t="n">
-        <v>1600.023160328281</v>
+        <v>1226.049138816156</v>
       </c>
       <c r="E8" t="n">
-        <v>1214.234907730036</v>
+        <v>840.2608862179118</v>
       </c>
       <c r="F8" t="n">
-        <v>803.2490029404289</v>
+        <v>429.2749814283042</v>
       </c>
       <c r="G8" t="n">
-        <v>385.2851948386158</v>
+        <v>415.3515773668951</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>88.15685740289797</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>1958.288858935031</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1958.288858935031</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.806220357135</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
         <v>1237.953133915166</v>
@@ -4898,10 +4898,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1212846776638</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C10" t="n">
-        <v>120.1212846776638</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D10" t="n">
-        <v>120.1212846776638</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E10" t="n">
-        <v>120.1212846776638</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F10" t="n">
-        <v>120.1212846776638</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>120.1212846776638</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>120.1212846776638</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,7 +4971,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4980,34 +4980,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600565</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600565</v>
+        <v>582.2735453571344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600565</v>
+        <v>582.2735453571344</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600565</v>
+        <v>582.2735453571344</v>
       </c>
       <c r="U10" t="n">
-        <v>409.5384547146244</v>
+        <v>582.2735453571344</v>
       </c>
       <c r="V10" t="n">
-        <v>409.5384547146244</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="W10" t="n">
-        <v>120.1212846776638</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="X10" t="n">
-        <v>120.1212846776638</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y10" t="n">
-        <v>120.1212846776638</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1865.553283416327</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>1496.590766475915</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1138.325067869165</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>752.5368152709202</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>341.5509104813127</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>73.9917951266205</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>73.9917951266205</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J11" t="n">
-        <v>262.6316941403561</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>666.0988071604011</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1218.912065406599</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>1850.62987638991</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>2477.937544449755</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3025.098749216832</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>3454.413795556125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>3699.589756331025</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
-        <v>3699.589756331025</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>3699.589756331025</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T11" t="n">
-        <v>3699.589756331025</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>3699.589756331025</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3368.526868987454</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3015.75821371734</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>2642.29245545626</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2252.153123480448</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8126299914996</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>119.8966521363041</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J12" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="K12" t="n">
-        <v>199.3493551844579</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>429.3124610528071</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M12" t="n">
-        <v>1069.857810519911</v>
+        <v>772.8730769161741</v>
       </c>
       <c r="N12" t="n">
-        <v>1743.063502772693</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O12" t="n">
-        <v>2001.655628026347</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2425.623396507183</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2656.336852567651</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S12" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>761.8000504751257</v>
+        <v>415.8299478944143</v>
       </c>
       <c r="C13" t="n">
-        <v>592.8638675472188</v>
+        <v>415.8299478944143</v>
       </c>
       <c r="D13" t="n">
-        <v>442.747228134883</v>
+        <v>415.8299478944143</v>
       </c>
       <c r="E13" t="n">
-        <v>442.747228134883</v>
+        <v>415.8299478944143</v>
       </c>
       <c r="F13" t="n">
-        <v>442.747228134883</v>
+        <v>415.8299478944143</v>
       </c>
       <c r="G13" t="n">
-        <v>274.1403831302664</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>119.8857400300315</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J13" t="n">
-        <v>73.9917951266205</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>175.03972472223</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L13" t="n">
-        <v>359.8727196230479</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M13" t="n">
-        <v>565.1423203422854</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N13" t="n">
-        <v>770.9656851783893</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O13" t="n">
-        <v>945.0605805669878</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1070.508157165603</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q13" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R13" t="n">
-        <v>943.4485153053654</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S13" t="n">
-        <v>943.4485153053654</v>
+        <v>1187.921157035279</v>
       </c>
       <c r="T13" t="n">
-        <v>943.4485153053654</v>
+        <v>1187.921157035279</v>
       </c>
       <c r="U13" t="n">
-        <v>943.4485153053654</v>
+        <v>1187.921157035279</v>
       </c>
       <c r="V13" t="n">
-        <v>943.4485153053654</v>
+        <v>933.2366688293922</v>
       </c>
       <c r="W13" t="n">
-        <v>943.4485153053654</v>
+        <v>643.8194987924317</v>
       </c>
       <c r="X13" t="n">
-        <v>943.4485153053654</v>
+        <v>415.8299478944143</v>
       </c>
       <c r="Y13" t="n">
-        <v>943.4485153053654</v>
+        <v>415.8299478944143</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2196.616170759897</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>1827.653653819485</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1469.387955212735</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1083.599702614491</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>672.6137978248832</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>255.5260160613107</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>73.9917951266205</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J14" t="n">
-        <v>262.6316941403564</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>666.0988071604011</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
-        <v>1218.912065406599</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>1850.62987638991</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>2477.937544449755</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O14" t="n">
-        <v>3025.098749216832</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P14" t="n">
-        <v>3454.413795556125</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q14" t="n">
-        <v>3699.589756331025</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R14" t="n">
-        <v>3699.589756331025</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>3699.589756331025</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T14" t="n">
-        <v>3699.589756331025</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U14" t="n">
-        <v>3699.589756331025</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V14" t="n">
-        <v>3699.589756331025</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W14" t="n">
-        <v>3346.821101060911</v>
+        <v>3578.526314851613</v>
       </c>
       <c r="X14" t="n">
-        <v>2973.355342799831</v>
+        <v>3205.060556590533</v>
       </c>
       <c r="Y14" t="n">
-        <v>2583.216010824019</v>
+        <v>2814.921224614722</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8126299914995</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>119.8966521363041</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J15" t="n">
-        <v>192.6510469835159</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="K15" t="n">
-        <v>522.0794512893252</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="L15" t="n">
-        <v>687.9045863064616</v>
+        <v>711.1141612171743</v>
       </c>
       <c r="M15" t="n">
-        <v>1328.449935773566</v>
+        <v>1149.698165809328</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.655628026347</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O15" t="n">
-        <v>2001.655628026347</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P15" t="n">
-        <v>2425.623396507183</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q15" t="n">
-        <v>2656.336852567651</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S15" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>761.8000504751259</v>
+        <v>579.0685056491543</v>
       </c>
       <c r="C16" t="n">
-        <v>592.863867547219</v>
+        <v>410.1323227212474</v>
       </c>
       <c r="D16" t="n">
-        <v>442.7472281348832</v>
+        <v>260.0156833089117</v>
       </c>
       <c r="E16" t="n">
-        <v>442.7472281348832</v>
+        <v>260.0156833089117</v>
       </c>
       <c r="F16" t="n">
-        <v>442.7472281348832</v>
+        <v>113.1257358110013</v>
       </c>
       <c r="G16" t="n">
-        <v>274.1403831302666</v>
+        <v>113.1257358110013</v>
       </c>
       <c r="H16" t="n">
-        <v>119.8857400300317</v>
+        <v>113.1257358110013</v>
       </c>
       <c r="I16" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J16" t="n">
-        <v>73.9917951266205</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K16" t="n">
-        <v>175.03972472223</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>359.872719623048</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>565.1423203422855</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
-        <v>770.9656851783894</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>945.0605805669879</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1070.508157165603</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>943.4485153053656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>943.4485153053656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>943.4485153053656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>943.4485153053656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>943.4485153053656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>943.4485153053656</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X16" t="n">
-        <v>943.4485153053656</v>
+        <v>981.5095496229242</v>
       </c>
       <c r="Y16" t="n">
-        <v>943.4485153053656</v>
+        <v>760.716970479394</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5527,40 +5527,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N18" t="n">
-        <v>2107.322705390779</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O18" t="n">
-        <v>2386.862770609477</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>247.3337308726216</v>
+        <v>256.0479578003559</v>
       </c>
       <c r="C19" t="n">
-        <v>247.3337308726216</v>
+        <v>256.0479578003559</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>256.0479578003559</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1132.448813950296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1132.448813950296</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V19" t="n">
-        <v>877.7643257444088</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W19" t="n">
-        <v>877.7643257444088</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X19" t="n">
-        <v>649.7747748463914</v>
+        <v>437.6964226305956</v>
       </c>
       <c r="Y19" t="n">
-        <v>428.9821957028613</v>
+        <v>437.6964226305956</v>
       </c>
     </row>
     <row r="20">
@@ -5746,19 +5746,19 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5840,16 +5840,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M21" t="n">
-        <v>865.5852378527474</v>
+        <v>334.2881267578673</v>
       </c>
       <c r="N21" t="n">
-        <v>1669.996816116898</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O21" t="n">
-        <v>2103.272883640391</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>1209.499100520942</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,25 +5974,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>232.333204354932</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L24" t="n">
-        <v>479.098332261396</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1139.068153712028</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1943.479731976179</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.1532743881928</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D25" t="n">
         <v>97.21709146028584</v>
@@ -6180,19 +6180,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.685527502827</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>1186.00103929694</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W25" t="n">
-        <v>896.5838692599799</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X25" t="n">
-        <v>668.5943183619626</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y25" t="n">
-        <v>447.8017392184324</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6305,19 +6305,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>381.3300194168668</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1149.698165809328</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>1954.109744073479</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4184.086356507268</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>4184.086356507268</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>4184.086356507268</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4666.760395611172</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4666.760395611172</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>4666.760395611172</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>4412.075907405285</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>4412.075907405285</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>4184.086356507268</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>4184.086356507268</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6460,34 +6460,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6539,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M30" t="n">
-        <v>323.6581146605672</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N30" t="n">
-        <v>1128.069692924718</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>130.9054447954965</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6676,58 +6676,58 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6736,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L33" t="n">
-        <v>711.1141612171745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M33" t="n">
-        <v>1479.482307609636</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N33" t="n">
-        <v>1954.109744073479</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O33" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4503.139178847509</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C34" t="n">
-        <v>4334.202995919602</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D34" t="n">
-        <v>4184.086356507267</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E34" t="n">
-        <v>4036.173262924874</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4684.787643677749</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4684.787643677749</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>4684.787643677749</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V34" t="n">
-        <v>4684.787643677749</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W34" t="n">
-        <v>4684.787643677749</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X34" t="n">
-        <v>4684.787643677749</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="Y34" t="n">
-        <v>4684.787643677749</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="35">
@@ -6916,46 +6916,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7025,19 +7025,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M36" t="n">
-        <v>865.5852378527472</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N36" t="n">
-        <v>1669.996816116898</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O36" t="n">
-        <v>2103.272883640391</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>564.1830073829216</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C37" t="n">
-        <v>395.2468244550147</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D37" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1452.29092652756</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1228.505511317066</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1228.505511317066</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>973.8210231111786</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W37" t="n">
-        <v>973.8210231111786</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X37" t="n">
-        <v>745.8314722131613</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y37" t="n">
-        <v>745.8314722131613</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7192,13 +7192,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,40 +7241,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L39" t="n">
-        <v>711.1141612171745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M39" t="n">
-        <v>1479.482307609636</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N39" t="n">
-        <v>1954.109744073479</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4549.859459491669</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>4326.074044281175</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>4162.622012164109</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>3907.937523958222</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>3907.937523958222</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>3679.947973060205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7432,31 +7432,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L42" t="n">
-        <v>877.4353633695368</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M42" t="n">
-        <v>1478.300838660644</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N42" t="n">
-        <v>1808.163466324677</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>613.8011874802282</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>613.8011874802282</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>613.8011874802282</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>613.8011874802282</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>1244.231782352015</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>1016.242231453998</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>795.449652310468</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7636,25 +7636,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7727,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L45" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M45" t="n">
-        <v>1003.751888060526</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N45" t="n">
-        <v>1808.163466324677</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>822.1480540508779</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C46" t="n">
-        <v>822.1480540508779</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D46" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>822.1480540508779</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W46" t="n">
-        <v>822.1480540508779</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X46" t="n">
-        <v>822.1480540508779</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y46" t="n">
-        <v>822.1480540508779</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.658803395178</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>6.233205181928696</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -9008,10 +9008,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>28.8843808095385</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9020,13 +9020,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9257,16 +9257,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9488,7 +9488,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>381.5997261417975</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9731,16 +9731,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9968,10 +9968,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10193,13 +10193,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10427,16 +10427,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849284</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10445,10 +10445,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,13 +10667,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849285</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849285</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10919,10 +10919,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,19 +11141,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>296.510446475905</v>
+        <v>370.8623401849284</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11378,19 +11378,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849285</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>148.0333797447915</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938906</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>2.586375558166765e-12</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>110.3999144253985</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>77.83155242504023</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>17.69584188176918</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>3.012701199622825e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>135.3220053498723</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938905</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>77.83155242504</v>
+        <v>94.66968755706367</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176917</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001187</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>134.6124529928311</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>56.66558900046195</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>78.59331985064341</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,16 +24177,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>90.96703739368829</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24420,7 +24420,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>228.5889167740531</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>115.7319267583066</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>133.578902344218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>92.13695539594963</v>
       </c>
     </row>
     <row r="35">
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>90.96703739368829</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>151.7617193935641</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>124.4198406026823</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>59.82943525837398</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>111.5698324276592</v>
+        <v>90.9670373936882</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>793678.7908793102</v>
+        <v>918918.2903836159</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>793678.7908793102</v>
+        <v>918918.2903836159</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>918918.2903836161</v>
+        <v>918918.290383616</v>
       </c>
     </row>
     <row r="8">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>918918.2903836162</v>
+        <v>918918.2903836161</v>
       </c>
     </row>
     <row r="15">
@@ -26316,16 +26316,16 @@
         <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>388396.0040473216</v>
+        <v>449683.418698365</v>
       </c>
       <c r="F2" t="n">
-        <v>388396.0040473216</v>
+        <v>449683.418698365</v>
       </c>
       <c r="G2" t="n">
         <v>449683.4186983652</v>
@@ -26337,22 +26337,22 @@
         <v>449683.4186983651</v>
       </c>
       <c r="J2" t="n">
-        <v>449683.418698365</v>
+        <v>449683.4186983651</v>
       </c>
       <c r="K2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983651</v>
       </c>
       <c r="L2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="M2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="N2" t="n">
-        <v>449683.418698365</v>
+        <v>449683.4186983651</v>
       </c>
       <c r="O2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="P2" t="n">
         <v>449683.4186983652</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145448</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,16 +26374,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>248146.7686188425</v>
+        <v>525160.0364768956</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>263762.8892659104</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62453.05588965289</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>69864.88484991129</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>639.5264553066584</v>
+        <v>787.7936905758691</v>
       </c>
       <c r="F4" t="n">
-        <v>639.5264553066582</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758692</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
         <v>787.7936905758695</v>
@@ -26453,10 +26453,10 @@
         <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758695</v>
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>69171.54328360136</v>
+        <v>91987.32594871659</v>
       </c>
       <c r="F5" t="n">
-        <v>69171.54328360136</v>
+        <v>91987.32594871659</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-339787.0787866103</v>
+        <v>-339787.07878661</v>
       </c>
       <c r="C6" t="n">
-        <v>250180.8004279344</v>
+        <v>250180.8004279345</v>
       </c>
       <c r="D6" t="n">
-        <v>250180.8004279344</v>
+        <v>250180.8004279345</v>
       </c>
       <c r="E6" t="n">
-        <v>70438.16568957113</v>
+        <v>-169226.3286775446</v>
       </c>
       <c r="F6" t="n">
-        <v>318584.9343084136</v>
+        <v>355933.7077993507</v>
       </c>
       <c r="G6" t="n">
-        <v>93145.40979316222</v>
+        <v>355933.707799351</v>
       </c>
       <c r="H6" t="n">
-        <v>356908.2990590726</v>
+        <v>355933.7077993508</v>
       </c>
       <c r="I6" t="n">
-        <v>356908.2990590726</v>
+        <v>355933.707799351</v>
       </c>
       <c r="J6" t="n">
-        <v>180485.0798664796</v>
+        <v>179510.488606758</v>
       </c>
       <c r="K6" t="n">
-        <v>356908.2990590727</v>
+        <v>355933.707799351</v>
       </c>
       <c r="L6" t="n">
-        <v>356908.2990590726</v>
+        <v>355933.7077993511</v>
       </c>
       <c r="M6" t="n">
-        <v>294455.2431694198</v>
+        <v>221132.6925655141</v>
       </c>
       <c r="N6" t="n">
-        <v>356908.2990590725</v>
+        <v>355933.707799351</v>
       </c>
       <c r="O6" t="n">
-        <v>287043.4142091614</v>
+        <v>355933.7077993511</v>
       </c>
       <c r="P6" t="n">
-        <v>356908.2990590727</v>
+        <v>355933.707799351</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="D3" t="n">
-        <v>377.7436642170868</v>
-      </c>
       <c r="E3" t="n">
-        <v>593.4761003380635</v>
+        <v>830.3824054540997</v>
       </c>
       <c r="F3" t="n">
-        <v>593.4761003380636</v>
+        <v>830.3824054541</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>924.8974390827563</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>924.8974390827563</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215.7324361209767</v>
+        <v>452.6387412370131</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>236.9063051160367</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>250.6101663282005</v>
+        <v>540.926370499017</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>290.3162041708168</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282005</v>
+        <v>540.9263704990168</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708171</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282005</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708168</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>204.496421628152</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>38.76968264892358</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>19.66077927292472</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>213.8881009996152</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>6.48383202661347</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>127.8549680684242</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>147.8252981211496</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.0595794181531</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>69.44910196361185</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>31.39105747426505</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,16 +28067,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31047,43 +31047,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>149.8971812516345</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639066</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,25 +31223,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,19 +31357,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>11.76595806653236</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,7 +31521,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,10 +31594,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
@@ -31606,28 +31606,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>149.897181251634</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31636,7 +31636,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.385833569198244</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H11" t="n">
-        <v>24.43391804055151</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
-        <v>91.97984867651536</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>202.4946418937396</v>
+        <v>283.3273112961202</v>
       </c>
       <c r="K11" t="n">
-        <v>303.4869768779013</v>
+        <v>424.6341946041485</v>
       </c>
       <c r="L11" t="n">
-        <v>376.5024309712521</v>
+        <v>526.7962671304437</v>
       </c>
       <c r="M11" t="n">
-        <v>418.9314987074814</v>
+        <v>586.1623499565515</v>
       </c>
       <c r="N11" t="n">
-        <v>425.7102483359659</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O11" t="n">
-        <v>401.9861157822508</v>
+        <v>562.4526372540882</v>
       </c>
       <c r="P11" t="n">
-        <v>343.0858495426692</v>
+        <v>480.0403130946989</v>
       </c>
       <c r="Q11" t="n">
-        <v>257.643184845757</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411493</v>
+        <v>209.6945076446476</v>
       </c>
       <c r="S11" t="n">
-        <v>54.36718245810503</v>
+        <v>76.06970478104644</v>
       </c>
       <c r="T11" t="n">
-        <v>10.44398644916532</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1908666855358594</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.276533498840363</v>
+        <v>1.786105551354101</v>
       </c>
       <c r="H12" t="n">
-        <v>12.32862615985298</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>43.95082441182829</v>
+        <v>61.4953007812706</v>
       </c>
       <c r="J12" t="n">
-        <v>120.604421484738</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -31849,31 +31849,31 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>323.4444746842445</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>332.0050874900644</v>
+        <v>21.52118431133965</v>
       </c>
       <c r="O12" t="n">
-        <v>9.938092090598559</v>
+        <v>424.9599466855523</v>
       </c>
       <c r="P12" t="n">
-        <v>243.7619099671567</v>
+        <v>341.0678223458547</v>
       </c>
       <c r="Q12" t="n">
-        <v>162.9483813607453</v>
+        <v>227.9948068710955</v>
       </c>
       <c r="R12" t="n">
-        <v>79.25705355080783</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>23.7110498578462</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>5.145325813308303</v>
+        <v>7.199258779361485</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08398246702897129</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.070202803888311</v>
+        <v>1.497410895081163</v>
       </c>
       <c r="H13" t="n">
-        <v>9.515075838206991</v>
+        <v>13.31334413990344</v>
       </c>
       <c r="I13" t="n">
-        <v>32.18391704784122</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J13" t="n">
-        <v>75.66333823490359</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K13" t="n">
-        <v>124.3381075790238</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>159.1099695889949</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>167.7591540676922</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
-        <v>163.7702163441087</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O13" t="n">
-        <v>151.2683017714133</v>
+        <v>211.652223606563</v>
       </c>
       <c r="P13" t="n">
-        <v>129.4361645720917</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.61489115104759</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>48.12020970937805</v>
+        <v>67.32903897337665</v>
       </c>
       <c r="S13" t="n">
-        <v>18.65071613685356</v>
+        <v>26.09578805336899</v>
       </c>
       <c r="T13" t="n">
-        <v>4.572684707522782</v>
+        <v>6.398028369892241</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05837469839390794</v>
+        <v>0.08167695791351809</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.385833569198244</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>24.43391804055152</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651539</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>202.4946418937396</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>303.4869768779013</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>376.5024309712522</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074814</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N14" t="n">
-        <v>425.710248335966</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O14" t="n">
-        <v>401.9861157822509</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P14" t="n">
-        <v>343.0858495426692</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.643184845757</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411493</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>54.36718245810503</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
-        <v>10.44398644916532</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.276533498840363</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>12.32862615985298</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>43.9508244118283</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J15" t="n">
-        <v>120.604421484738</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>206.1321659070423</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>277.1701353512815</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M15" t="n">
-        <v>323.4444746842446</v>
+        <v>119.4431162246991</v>
       </c>
       <c r="N15" t="n">
-        <v>332.0050874900645</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P15" t="n">
-        <v>243.7619099671568</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>162.9483813607453</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080784</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>23.71104985784621</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308304</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.070202803888311</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>9.515075838206993</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>32.18391704784123</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490361</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>124.3381075790238</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>159.109969588995</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>167.7591540676923</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
-        <v>163.7702163441087</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>151.2683017714134</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>129.4361645720917</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.6148911510476</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>48.12020970937806</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S16" t="n">
-        <v>18.65071613685356</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>4.572684707522783</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>380.4309478731437</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P18" t="n">
-        <v>285.0631269188133</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,43 +32390,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32560,28 +32560,28 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>186.3865186257888</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,37 +32788,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>232.4121821352565</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>108.7057302678302</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,25 +33025,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>54.69678998811293</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -33052,10 +33052,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,19 +33262,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>202.8611258896133</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33286,13 +33286,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33499,31 +33499,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>131.4209907335605</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,16 +33666,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33739,34 +33739,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>186.386518625789</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,37 +33973,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>131.4209907335605</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,22 +34210,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
         <v>341.0678223458549</v>
@@ -34234,13 +34234,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,25 +34377,25 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927192</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,22 +34447,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>9.078794013801826</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
         <v>341.0678223458549</v>
@@ -34471,13 +34471,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>401.1632560839196</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34871,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.5453525391271</v>
+        <v>271.3780219415077</v>
       </c>
       <c r="K11" t="n">
-        <v>407.5425384040855</v>
+        <v>528.6897561303327</v>
       </c>
       <c r="L11" t="n">
-        <v>558.3972305517153</v>
+        <v>708.6910667109069</v>
       </c>
       <c r="M11" t="n">
-        <v>638.0987989730411</v>
+        <v>805.3296502221112</v>
       </c>
       <c r="N11" t="n">
-        <v>633.6441091513591</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O11" t="n">
-        <v>552.6880856233095</v>
+        <v>713.1546070951468</v>
       </c>
       <c r="P11" t="n">
-        <v>433.6515619588823</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>247.6524856312122</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>59.82538970349796</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,19 +35497,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>647.0155045122261</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>680.0057497502846</v>
+        <v>369.5218465715599</v>
       </c>
       <c r="O12" t="n">
-        <v>261.2041669228836</v>
+        <v>676.2260215178374</v>
       </c>
       <c r="P12" t="n">
-        <v>428.2502711927636</v>
+        <v>525.5561835714616</v>
       </c>
       <c r="Q12" t="n">
-        <v>233.0438950105729</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>12.50777016556546</v>
       </c>
       <c r="K13" t="n">
-        <v>102.0686157531409</v>
+        <v>151.7024285299104</v>
       </c>
       <c r="L13" t="n">
-        <v>186.6999948493111</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M13" t="n">
-        <v>207.3430310295328</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>207.9023887233373</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O13" t="n">
-        <v>175.853429685453</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P13" t="n">
-        <v>126.7147238369852</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.452847899353202</v>
+        <v>39.22569997187468</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.5453525391271</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>407.5425384040855</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517154</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>638.0987989730412</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513592</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233096</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588823</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
-        <v>247.6524856312122</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>119.8578301584802</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>332.755963945262</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>167.5001363809459</v>
+        <v>620.0980502594833</v>
       </c>
       <c r="M15" t="n">
-        <v>647.0155045122262</v>
+        <v>443.0141460526806</v>
       </c>
       <c r="N15" t="n">
-        <v>680.0057497502846</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>428.2502711927636</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>233.0438950105729</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K16" t="n">
-        <v>102.0686157531409</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>186.6999948493111</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>207.3430310295329</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>207.9023887233373</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>175.8534296854531</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7147238369852</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.452847899353216</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>728.431610133364</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>151.0887195044831</v>
+        <v>525.5561835714617</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>239.4656922197792</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>437.6525934580739</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>94.57074316089751</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>432.2767600958118</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>286.9827555116979</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36919,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>60.72709196759495</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
@@ -36934,7 +36934,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37153,25 +37153,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N33" t="n">
-        <v>479.4216529937808</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,19 +37308,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>437.6525934580741</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,25 +37627,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N39" t="n">
-        <v>479.4216529937808</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>606.9348235263712</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
@@ -37882,7 +37882,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,16 +38019,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>332.6498238417834</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
@@ -38119,7 +38119,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1654739.525348075</v>
+        <v>1660797.023521538</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>523586.9162897412</v>
+        <v>525617.3488127117</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1702443.552109827</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10757764.99812417</v>
+        <v>10539372.29004432</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>329.3770870099943</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>212.4544848593657</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>59.72683757586824</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>407.3003379941815</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>235.7901709602394</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>101.7806877295493</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>25.3159054168623</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>258.1221085827602</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>33.87173682670818</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>115.2741345058928</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274083</v>
+        <v>118.4960408938905</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883384993</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>146.6873117041419</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262922</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014448</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>20.90078060183529</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T12" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>103.7969424489213</v>
       </c>
       <c r="G13" t="n">
-        <v>56.09365403797906</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634776</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1615,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>21.24512721250472</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014446</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>20.90078060183529</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T15" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>56.91678120541681</v>
       </c>
       <c r="I16" t="n">
-        <v>15.74955790720833</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>11.82150965373811</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>56.14954634557857</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>122.65197883716</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>57.64843562452406</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>83.53293045533975</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>101.5008511078726</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>12.49082363978136</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3046,10 +3046,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>15.59458547084342</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>126.4476979561452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>11.89446409565929</v>
       </c>
       <c r="D37" t="n">
-        <v>57.64843562452406</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,13 +3666,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>45.21952718910648</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>11.82150965373833</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>88.35924640834592</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>161.1706059301398</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1001.280783616703</v>
+        <v>2090.781606227855</v>
       </c>
       <c r="C2" t="n">
-        <v>632.3182666762914</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D2" t="n">
-        <v>632.3182666762914</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4336,7 +4336,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2482.548601261287</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>2151.485713917717</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W2" t="n">
-        <v>2151.485713917717</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X2" t="n">
-        <v>1778.019955656637</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="Y2" t="n">
-        <v>1387.880623680825</v>
+        <v>2423.485734520778</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4412,22 +4412,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4436,16 +4436,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.7988452409105</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>2528.212908090316</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>2378.09626867798</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>2230.183175095587</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>2083.293227597676</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1958.288858935031</v>
+        <v>2001.758776122685</v>
       </c>
       <c r="C5" t="n">
-        <v>1589.326341994619</v>
+        <v>1632.796259182274</v>
       </c>
       <c r="D5" t="n">
-        <v>1589.326341994619</v>
+        <v>1274.530560575523</v>
       </c>
       <c r="E5" t="n">
-        <v>1203.538089396375</v>
+        <v>1274.530560575523</v>
       </c>
       <c r="F5" t="n">
-        <v>792.5521846067672</v>
+        <v>863.5446557859157</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>445.5808476841025</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4600,19 +4600,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X5" t="n">
-        <v>1958.288858935031</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y5" t="n">
-        <v>1958.288858935031</v>
+        <v>2388.358616186807</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4649,28 +4649,28 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.9088977430002</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y7" t="n">
-        <v>702.55736257324</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1584.314837422907</v>
+        <v>1623.178216428726</v>
       </c>
       <c r="C8" t="n">
-        <v>1584.314837422907</v>
+        <v>1623.178216428726</v>
       </c>
       <c r="D8" t="n">
-        <v>1226.049138816156</v>
+        <v>1264.912517821975</v>
       </c>
       <c r="E8" t="n">
-        <v>840.2608862179118</v>
+        <v>879.1242652237311</v>
       </c>
       <c r="F8" t="n">
-        <v>429.2749814283042</v>
+        <v>468.1383604341235</v>
       </c>
       <c r="G8" t="n">
-        <v>415.3515773668951</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>88.15685740289797</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4840,16 +4840,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487028</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y8" t="n">
-        <v>1970.914677487028</v>
+        <v>1623.178216428726</v>
       </c>
     </row>
     <row r="9">
@@ -4898,10 +4898,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.5995062532301</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>99.5995062532301</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5995062532301</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>582.2735453571344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>582.2735453571344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>582.2735453571344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>582.2735453571344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>327.5890571512475</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>327.5890571512475</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.5995062532301</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>1776.509221818346</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>1407.546704877934</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1407.546704877934</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1021.75845227969</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>610.7725474900824</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028581</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>262.6316941403564</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>666.0988071604011</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207828</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231261</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>3328.574857095564</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>3074.883153840715</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>2926.714152119359</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>2926.714152119359</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>2553.24839385828</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2163.109061882468</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E12" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914995</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028581</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028581</v>
+        <v>192.6510469835159</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>192.6510469835159</v>
       </c>
       <c r="L12" t="n">
-        <v>452.5377573864724</v>
+        <v>697.0125868496337</v>
       </c>
       <c r="M12" t="n">
-        <v>772.8730769161741</v>
+        <v>1337.557936316738</v>
       </c>
       <c r="N12" t="n">
-        <v>1138.699705022018</v>
+        <v>1682.933075334092</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2232.369084086814</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R12" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S12" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>415.8299478944143</v>
+        <v>495.3571301266821</v>
       </c>
       <c r="C13" t="n">
-        <v>415.8299478944143</v>
+        <v>495.3571301266821</v>
       </c>
       <c r="D13" t="n">
-        <v>415.8299478944143</v>
+        <v>495.3571301266821</v>
       </c>
       <c r="E13" t="n">
-        <v>415.8299478944143</v>
+        <v>347.444036544289</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8299478944143</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028581</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688069</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799361</v>
+        <v>359.872719623048</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471187</v>
+        <v>565.1423203422855</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>770.9656851783894</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>945.0605805669879</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585745</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557901</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119727</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035279</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.921157035279</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.921157035279</v>
+        <v>784.7743001636427</v>
       </c>
       <c r="V13" t="n">
-        <v>933.2366688293922</v>
+        <v>784.7743001636427</v>
       </c>
       <c r="W13" t="n">
-        <v>643.8194987924317</v>
+        <v>495.3571301266821</v>
       </c>
       <c r="X13" t="n">
-        <v>415.8299478944143</v>
+        <v>495.3571301266821</v>
       </c>
       <c r="Y13" t="n">
-        <v>415.8299478944143</v>
+        <v>495.3571301266821</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>1629.293697226963</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>1260.331180286551</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>902.0654816798005</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>902.0654816798005</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>491.079576890193</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028581</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>262.6316941403563</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>666.0988071604012</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619126</v>
+        <v>2477.937544449756</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643322</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899125</v>
+        <v>3454.413795556126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207828</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231261</v>
+        <v>3678.13003187395</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141865</v>
+        <v>3463.330170141661</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465298</v>
+        <v>3463.330170141661</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121728</v>
+        <v>3132.26728279809</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851613</v>
+        <v>2779.498627527976</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590533</v>
+        <v>2406.032869266896</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614722</v>
+        <v>2015.893537291084</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028581</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028581</v>
+        <v>192.6510469835159</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028581</v>
+        <v>522.0794512893252</v>
       </c>
       <c r="L15" t="n">
-        <v>711.1141612171743</v>
+        <v>752.0425571576743</v>
       </c>
       <c r="M15" t="n">
-        <v>1149.698165809328</v>
+        <v>1392.587906624778</v>
       </c>
       <c r="N15" t="n">
-        <v>1954.109744073479</v>
+        <v>1914.221111489523</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>2162.974525573485</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2586.942294054321</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R15" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S15" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>579.0685056491543</v>
+        <v>598.449409236546</v>
       </c>
       <c r="C16" t="n">
-        <v>410.1323227212474</v>
+        <v>429.5132263086391</v>
       </c>
       <c r="D16" t="n">
-        <v>260.0156833089117</v>
+        <v>279.3965868963033</v>
       </c>
       <c r="E16" t="n">
-        <v>260.0156833089117</v>
+        <v>131.4834933139102</v>
       </c>
       <c r="F16" t="n">
-        <v>113.1257358110013</v>
+        <v>131.4834933139102</v>
       </c>
       <c r="G16" t="n">
-        <v>113.1257358110013</v>
+        <v>131.4834933139102</v>
       </c>
       <c r="H16" t="n">
-        <v>113.1257358110013</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028581</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>359.872719623048</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>565.1423203422855</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783894</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>945.0605805669879</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>819.2419883800761</v>
       </c>
       <c r="W16" t="n">
-        <v>1209.499100520942</v>
+        <v>819.2419883800761</v>
       </c>
       <c r="X16" t="n">
-        <v>981.5095496229242</v>
+        <v>819.2419883800761</v>
       </c>
       <c r="Y16" t="n">
-        <v>760.716970479394</v>
+        <v>598.449409236546</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="M18" t="n">
-        <v>417.5524109899876</v>
+        <v>865.5852378527477</v>
       </c>
       <c r="N18" t="n">
-        <v>1138.699705022018</v>
+        <v>1669.996816116899</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2339.460577419558</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>256.0479578003559</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C19" t="n">
-        <v>256.0479578003559</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D19" t="n">
-        <v>256.0479578003559</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.78763177146</v>
+        <v>1009.867621687014</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655735</v>
+        <v>1009.867621687014</v>
       </c>
       <c r="W19" t="n">
-        <v>665.685973528613</v>
+        <v>1009.867621687014</v>
       </c>
       <c r="X19" t="n">
-        <v>437.6964226305956</v>
+        <v>953.1509082066311</v>
       </c>
       <c r="Y19" t="n">
-        <v>437.6964226305956</v>
+        <v>732.358329063101</v>
       </c>
     </row>
     <row r="20">
@@ -5746,7 +5746,7 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5764,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5840,19 +5840,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M21" t="n">
-        <v>334.2881267578673</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N21" t="n">
-        <v>1138.699705022018</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5937,22 +5937,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1375.025382843599</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028584</v>
@@ -5968,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,31 +6007,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6056,40 +6056,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L24" t="n">
         <v>711.1141612171745</v>
       </c>
       <c r="M24" t="n">
-        <v>1139.068153712028</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N24" t="n">
-        <v>1943.479731976179</v>
+        <v>2283.893885873787</v>
       </c>
       <c r="O24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>324.3840174432676</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C25" t="n">
-        <v>155.4478345153607</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6186,13 +6186,13 @@
         <v>1244.231782352015</v>
       </c>
       <c r="W25" t="n">
-        <v>954.8146123150548</v>
+        <v>1159.855084922379</v>
       </c>
       <c r="X25" t="n">
-        <v>726.8250614170374</v>
+        <v>931.8655340243621</v>
       </c>
       <c r="Y25" t="n">
-        <v>506.0324822735073</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="26">
@@ -6223,13 +6223,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6238,19 +6238,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="M27" t="n">
-        <v>2056.693778606511</v>
+        <v>334.2881267578673</v>
       </c>
       <c r="N27" t="n">
-        <v>2623.573505376138</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O27" t="n">
-        <v>2623.573505376138</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="29">
@@ -6439,55 +6439,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,19 +6539,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M30" t="n">
-        <v>334.288126757867</v>
+        <v>334.2881267578673</v>
       </c>
       <c r="N30" t="n">
         <v>1138.699705022018</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>260.2520934878793</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="32">
@@ -6676,58 +6676,58 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6736,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6776,19 +6776,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M33" t="n">
-        <v>323.6581146605669</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N33" t="n">
         <v>1128.069692924718</v>
@@ -6846,16 +6846,16 @@
         <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6888,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>1020.446367141521</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W34" t="n">
-        <v>1020.446367141521</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X34" t="n">
-        <v>1020.446367141521</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y34" t="n">
-        <v>892.7214197110717</v>
+        <v>726.8250614170374</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,31 +6925,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7025,7 +7025,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M36" t="n">
-        <v>323.6581146605669</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N36" t="n">
         <v>1128.069692924718</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>324.3840174432676</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C37" t="n">
-        <v>155.4478345153607</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7128,19 +7128,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>1244.231782352015</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W37" t="n">
-        <v>954.8146123150548</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X37" t="n">
-        <v>726.8250614170374</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y37" t="n">
-        <v>506.0324822735073</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="38">
@@ -7156,31 +7156,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7262,7 +7262,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M39" t="n">
-        <v>323.6581146605669</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N39" t="n">
         <v>1128.069692924718</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7432,31 +7432,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,19 +7487,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028587</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="M42" t="n">
-        <v>323.6581146605669</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="N42" t="n">
         <v>1128.069692924718</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011507</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952638</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>425.7555037884359</v>
       </c>
     </row>
     <row r="44">
@@ -7636,46 +7636,46 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7724,19 +7724,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6581146605669</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N45" t="n">
         <v>1128.069692924718</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>416.2699138005285</v>
+        <v>444.8933943850831</v>
       </c>
       <c r="C46" t="n">
-        <v>247.3337308726216</v>
+        <v>444.8933943850831</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>444.8933943850831</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362488</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7839,19 +7839,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>1336.117678709276</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>1046.700508672316</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>818.7109577742983</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y46" t="n">
-        <v>597.9183786307682</v>
+        <v>444.8933943850831</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9488,7 +9488,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>381.5997261417975</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9956,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>381.5997261417976</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10199,7 +10199,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>381.5997261417972</v>
+        <v>381.5997261417975</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10436,7 +10436,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>370.8623401849284</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10673,7 +10673,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>370.8623401849285</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10910,7 +10910,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>370.8623401849285</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11141,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>370.8623401849284</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11384,7 +11384,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>370.8623401849285</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,16 +23311,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.586375558166765e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>181.064946765993</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23424,22 +23424,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>41.62410557400993</v>
       </c>
       <c r="G13" t="n">
-        <v>110.3999144253985</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>17.69584188176917</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.012701199622825e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>118.4960408938905</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.4077599156356</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,22 +23661,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>95.79531546381577</v>
       </c>
       <c r="I16" t="n">
-        <v>94.66968755706367</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>17.69584188176917</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>134.6124529928311</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>169.5601090434586</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>75.26883114644322</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>90.96703739368829</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>202.9900678812513</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>78.33112907406469</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>154.7559974588465</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,7 +24855,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>164.2373947110939</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>92.13695539594963</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>155.3523570029685</v>
       </c>
       <c r="D37" t="n">
-        <v>90.96703739368829</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25554,13 +25554,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>103.3959458291059</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>206.7631436983565</v>
       </c>
     </row>
     <row r="44">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>58.07471623822325</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26043,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,16 +26079,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>90.9670373936882</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>918918.2903836159</v>
+        <v>793678.7908793102</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>918918.2903836159</v>
+        <v>793678.7908793103</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>918918.290383616</v>
+        <v>918918.2903836162</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>918918.2903836161</v>
+        <v>918918.290383616</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>918918.2903836161</v>
+        <v>918918.290383616</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>918918.2903836161</v>
+        <v>918918.290383616</v>
       </c>
     </row>
     <row r="13">
@@ -26322,37 +26322,37 @@
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>449683.418698365</v>
+        <v>388396.0040473216</v>
       </c>
       <c r="F2" t="n">
-        <v>449683.418698365</v>
+        <v>388396.0040473216</v>
       </c>
       <c r="G2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="H2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="I2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="J2" t="n">
         <v>449683.4186983651</v>
       </c>
       <c r="K2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="L2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="M2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="N2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="O2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="P2" t="n">
         <v>449683.4186983652</v>
@@ -26374,16 +26374,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768956</v>
+        <v>248146.7686188428</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>263762.8892659107</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>62453.05588965292</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>69864.88484991129</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26426,13 +26426,13 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758691</v>
+        <v>639.5264553066584</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758693</v>
+        <v>639.5264553066584</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758692</v>
+        <v>787.7936905758697</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758695</v>
@@ -26456,7 +26456,7 @@
         <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758695</v>
@@ -26478,37 +26478,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871659</v>
+        <v>69171.54328360136</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871659</v>
+        <v>69171.54328360138</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-339787.07878661</v>
+        <v>-339787.0787866099</v>
       </c>
       <c r="C6" t="n">
         <v>250180.8004279345</v>
@@ -26530,40 +26530,40 @@
         <v>250180.8004279345</v>
       </c>
       <c r="E6" t="n">
-        <v>-169226.3286775446</v>
+        <v>70074.23954337675</v>
       </c>
       <c r="F6" t="n">
-        <v>355933.7077993507</v>
+        <v>318221.0081622194</v>
       </c>
       <c r="G6" t="n">
-        <v>355933.707799351</v>
+        <v>93047.95066718986</v>
       </c>
       <c r="H6" t="n">
-        <v>355933.7077993508</v>
+        <v>356810.839933101</v>
       </c>
       <c r="I6" t="n">
-        <v>355933.707799351</v>
+        <v>356810.8399331006</v>
       </c>
       <c r="J6" t="n">
-        <v>179510.488606758</v>
+        <v>180387.6207405075</v>
       </c>
       <c r="K6" t="n">
-        <v>355933.707799351</v>
+        <v>356810.8399331006</v>
       </c>
       <c r="L6" t="n">
-        <v>355933.7077993511</v>
+        <v>356810.8399331006</v>
       </c>
       <c r="M6" t="n">
-        <v>221132.6925655141</v>
+        <v>294357.7840434476</v>
       </c>
       <c r="N6" t="n">
-        <v>355933.707799351</v>
+        <v>356810.8399331005</v>
       </c>
       <c r="O6" t="n">
-        <v>355933.7077993511</v>
+        <v>286945.9550831892</v>
       </c>
       <c r="P6" t="n">
-        <v>355933.707799351</v>
+        <v>356810.8399331006</v>
       </c>
     </row>
   </sheetData>
@@ -26740,46 +26740,46 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054540997</v>
+        <v>593.4761003380636</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541</v>
+        <v>593.4761003380636</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26798,13 +26798,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>924.8974390827565</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26968,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370131</v>
+        <v>215.732436120977</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>236.9063051160371</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499017</v>
+        <v>250.6101663282006</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>290.3162041708171</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990168</v>
+        <v>250.6101663282006</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>290.3162041708171</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>250.6101663282006</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>290.3162041708171</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>53.35675465348629</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>38.76968264892358</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831827</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>6.48383202661347</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>88.13260180411774</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,13 +27672,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27779,10 +27779,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>150.3569555942787</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>193.2687479352325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>155.6620614380348</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>118.0595794181531</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>31.39105747426505</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="11">
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31150,19 +31150,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,19 +31357,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653236</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31618,25 +31618,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>149.897181251634</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443615</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>24.43391804055152</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>91.97984867651539</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961202</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041485</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304437</v>
+        <v>376.5024309712522</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565515</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927183</v>
+        <v>425.710248335966</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540882</v>
+        <v>401.9861157822509</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946989</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647494</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446476</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104644</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.1908666855358595</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354101</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I12" t="n">
-        <v>61.4953007812706</v>
+        <v>43.9508244118283</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>323.4444746842446</v>
       </c>
       <c r="N12" t="n">
-        <v>21.52118431133965</v>
+        <v>0.8631145249865995</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855523</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458547</v>
+        <v>243.7619099671568</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710955</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>79.25705355080784</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>23.71104985784621</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361485</v>
+        <v>5.145325813308304</v>
       </c>
       <c r="U12" t="n">
-        <v>0.117506944168033</v>
+        <v>0.0839824670289713</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081163</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990344</v>
+        <v>9.515075838206993</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298627</v>
+        <v>32.18391704784123</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822382</v>
+        <v>75.66333823490361</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>159.109969588995</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>167.7591540676923</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263749</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O13" t="n">
-        <v>211.652223606563</v>
+        <v>151.2683017714134</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>89.6148911510476</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337665</v>
+        <v>48.12020970937806</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336899</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892241</v>
+        <v>4.572684707522783</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351809</v>
+        <v>0.05837469839390796</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>24.43391804055152</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>91.97984867651539</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304438</v>
+        <v>376.5024309712522</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565517</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927184</v>
+        <v>425.710248335966</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540884</v>
+        <v>401.9861157822509</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.1908666855358595</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127062</v>
+        <v>43.9508244118283</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358983</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>119.4431162246991</v>
+        <v>323.4444746842446</v>
       </c>
       <c r="N15" t="n">
-        <v>464.536285481346</v>
+        <v>178.9015648758855</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855524</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>243.7619099671568</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>79.25705355080784</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>23.71104985784621</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361487</v>
+        <v>5.145325813308304</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.0839824670289713</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>9.515075838206993</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298628</v>
+        <v>32.18391704784123</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490361</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>159.109969588995</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>167.7591540676923</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>151.2683017714134</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>89.6148911510476</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337667</v>
+        <v>48.12020970937806</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892243</v>
+        <v>4.572684707522783</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.05837469839390796</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,13 +32305,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -32323,31 +32323,31 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>380.4309478731437</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>32.39888063626282</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298628</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171318</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32575,7 +32575,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677464</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32797,13 +32797,13 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>108.7057302678302</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>91.84465193776708</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -32812,13 +32812,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,37 +33025,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33274,7 +33274,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33511,7 +33511,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,16 +33666,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33748,7 +33748,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33985,7 +33985,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,19 +34210,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>225.9373985850584</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,16 +34386,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34459,7 +34459,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839191</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415077</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303327</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109069</v>
+        <v>558.3972305517154</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221112</v>
+        <v>638.0987989730412</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081115</v>
+        <v>633.6441091513592</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951468</v>
+        <v>552.6880856233096</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502046</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349796</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.8578301584802</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>647.0155045122262</v>
       </c>
       <c r="N12" t="n">
-        <v>369.5218465715599</v>
+        <v>348.8637767852068</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178374</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714616</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209231</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556546</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299104</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799284</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>207.3430310295329</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056035</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206027</v>
+        <v>175.8534296854531</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187468</v>
+        <v>3.452847899353216</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>558.3972305517154</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221115</v>
+        <v>638.0987989730412</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081116</v>
+        <v>633.6441091513592</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095147</v>
+        <v>552.6880856233096</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349802</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>119.8578301584802</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>332.755963945262</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594833</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>443.0141460526806</v>
+        <v>647.0155045122262</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415662</v>
+        <v>526.9022271361057</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556549</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>207.3430310295329</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>175.8534296854531</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718747</v>
+        <v>3.452847899353216</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L17" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,19 +35971,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N18" t="n">
-        <v>728.431610133364</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714617</v>
+        <v>216.8872418618697</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209231</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718747</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36208,7 +36208,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>239.4656922197792</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N21" t="n">
         <v>812.5369477415663</v>
@@ -36223,7 +36223,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,13 +36445,13 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>432.2767600958118</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>343.1107267700522</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>239.4656922197793</v>
       </c>
       <c r="N27" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>239.4656922197789</v>
+        <v>239.4656922197792</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>228.7283062629101</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
@@ -37171,7 +37171,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,19 +37308,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,13 +37393,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>228.7283062629101</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
@@ -37408,7 +37408,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,13 +37630,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>228.7283062629101</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
@@ -37645,7 +37645,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>458.2233641086434</v>
       </c>
       <c r="M42" t="n">
-        <v>228.7283062629101</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
@@ -37882,7 +37882,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,13 +38104,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>228.7283062629101</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
@@ -38119,7 +38119,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
